--- a/excel.xlsx
+++ b/excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VSCode_Workspace\github\morpheus-ai\outputs\screens\signup_top_graph\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VSCode_Workspace\github\streamlit_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215575BF-51D2-46EF-88FC-D03053128F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C496E0A-D661-41C5-B2B8-5CEB8546E12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="120">
   <si>
     <t>ID</t>
   </si>
@@ -32,21 +32,12 @@
     <t>test_area</t>
   </si>
   <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>sub_category</t>
-  </si>
-  <si>
     <t>sub_sub_category</t>
   </si>
   <si>
     <t>test_objective</t>
   </si>
   <si>
-    <t>pre_condition</t>
-  </si>
-  <si>
     <t>test_data</t>
   </si>
   <si>
@@ -56,9 +47,6 @@
     <t>expected_result</t>
   </si>
   <si>
-    <t>tc_type</t>
-  </si>
-  <si>
     <t>TC_ID</t>
   </si>
   <si>
@@ -68,16 +56,7 @@
     <t>ACCESSING</t>
   </si>
   <si>
-    <t>Accessing</t>
-  </si>
-  <si>
-    <t>Accessing by URL</t>
-  </si>
-  <si>
     <t>Verify that the welcome screen is accessible via direct URL by an unauthenticated user.</t>
-  </si>
-  <si>
-    <t>User is not authenticated.</t>
   </si>
   <si>
     <t>Direct URL to the welcome screen.</t>
@@ -91,13 +70,7 @@
     <t>The welcome screen is displayed showing the Logo, Welcome Text, and all authentication options (Sign in with Email, Google, Apple, and Sign up).</t>
   </si>
   <si>
-    <t>Access control and security</t>
-  </si>
-  <si>
     <t>Verify that an authenticated user attempting to access the welcome screen via direct URL is redirected appropriately.</t>
-  </si>
-  <si>
-    <t>User is already authenticated (logged in).</t>
   </si>
   <si>
     <t>1. Ensure the user is logged in.
@@ -108,13 +81,7 @@
     <t>User is redirected away from the welcome screen to the top/default authenticated screen (#Top_Default) or an appropriate landing page for authenticated users.</t>
   </si>
   <si>
-    <t>Accessing with Wrong URL</t>
-  </si>
-  <si>
     <t>Verify that accessing an incorrect URL intended for the welcome screen returns an appropriate error.</t>
-  </si>
-  <si>
-    <t>User is unauthenticated.</t>
   </si>
   <si>
     <t>Incorrect URL (e.g., /welcomexyz).</t>
@@ -128,13 +95,7 @@
     <t>A 404 error page or an appropriate error message is displayed indicating the page is not found.</t>
   </si>
   <si>
-    <t>Accessing via UI - Email Button</t>
-  </si>
-  <si>
     <t>Verify that clicking the 'Sign in with Email' button navigates to the email sign-in screen.</t>
-  </si>
-  <si>
-    <t>User is unauthenticated and viewing the welcome screen.</t>
   </si>
   <si>
     <t>Click event on 'Sign in with Email' button.</t>
@@ -147,13 +108,7 @@
     <t>The system navigates to the email sign-in screen (#Singin).</t>
   </si>
   <si>
-    <t>Accessing via UI - Google OAuth Button</t>
-  </si>
-  <si>
     <t>Verify that clicking the 'Sign in with Google' button initiates the OAuth flow and successfully redirects the user upon authentication.</t>
-  </si>
-  <si>
-    <t>User is unauthenticated and on the welcome screen.</t>
   </si>
   <si>
     <t>Click event on 'Sign in with Google' button.</t>
@@ -169,9 +124,6 @@
     <t>The Google OAuth flow is successfully initiated, and upon authentication, the user is redirected to the top/default screen (#Top_Default).</t>
   </si>
   <si>
-    <t>Accessing via UI - Apple OAuth Button</t>
-  </si>
-  <si>
     <t>Verify that clicking the 'Sign in with Apple' button initiates the OAuth flow and successfully redirects the user upon authentication.</t>
   </si>
   <si>
@@ -188,13 +140,7 @@
     <t>The Apple OAuth flow is successfully initiated, and upon authentication, the user is redirected to the top/default screen (#Top_Default).</t>
   </si>
   <si>
-    <t>Accessing via UI - Sign Up Button</t>
-  </si>
-  <si>
     <t>Verify that clicking the 'Sign up' button navigates the user to the registration screen.</t>
-  </si>
-  <si>
-    <t>User is unauthenticated and currently on the welcome screen.</t>
   </si>
   <si>
     <t>Click event on 'Sign up' button.</t>
@@ -211,9 +157,6 @@
   </si>
   <si>
     <t>GUI</t>
-  </si>
-  <si>
-    <t>Logo</t>
   </si>
   <si>
     <t>Verify that the Logo is displayed correctly as per the design specifications.</t>
@@ -228,12 +171,6 @@
 - The Logo meets the design specifications regarding size, position, and aspect ratio.</t>
   </si>
   <si>
-    <t>User interface</t>
-  </si>
-  <si>
-    <t>WelcomeText</t>
-  </si>
-  <si>
     <t>Verify that the Welcome Text is displayed correctly and is not interactive.</t>
   </si>
   <si>
@@ -247,9 +184,6 @@
 - The text is not clickable or interactive.</t>
   </si>
   <si>
-    <t>Signin_with_Email_Button</t>
-  </si>
-  <si>
     <t>Verify that the Sign in with Email Button is displayed correctly and responds to hover actions.</t>
   </si>
   <si>
@@ -263,9 +197,6 @@
 - The button text and/or icon is clearly visible.</t>
   </si>
   <si>
-    <t>Signin_with_Google_Button</t>
-  </si>
-  <si>
     <t>Verify that the Sign in with Google Button is styled correctly and shows appropriate hover effects without triggering OAuth functionality.</t>
   </si>
   <si>
@@ -279,9 +210,6 @@
 - The button remains responsive in appearance without executing the OAuth flow.</t>
   </si>
   <si>
-    <t>Signin_with_Apple_Button</t>
-  </si>
-  <si>
     <t>Verify that the Sign in with Apple Button is displayed correctly and reacts to hover actions.</t>
   </si>
   <si>
@@ -295,9 +223,6 @@
 - Visual consistency is maintained with similar button elements on the page.</t>
   </si>
   <si>
-    <t>Signup_Button</t>
-  </si>
-  <si>
     <t>Verify that the Sign up Button is displayed correctly and demonstrates hover effects indicating interactivity.</t>
   </si>
   <si>
@@ -314,13 +239,7 @@
     <t>FUNCTION</t>
   </si>
   <si>
-    <t>Functional</t>
-  </si>
-  <si>
     <t>Verify that the Logo image is displayed on the Welcome Screen using the AWS S3 link from the app_logo field.</t>
-  </si>
-  <si>
-    <t>The app_logo field in the configs table is populated with a valid AWS S3 image URL.</t>
   </si>
   <si>
     <t>AWS S3 URL from app_logo field (e.g., https://s3.amazonaws.com/yourbucket/yourlogo.png)</t>
@@ -335,13 +254,7 @@
     <t>The Logo is displayed correctly with the image loaded from the valid AWS S3 URL.</t>
   </si>
   <si>
-    <t>Normal</t>
-  </si>
-  <si>
     <t>Verify that the Logo image source URL uses secure HTTPS protocol as required.</t>
-  </si>
-  <si>
-    <t>The app_logo field in the configs table provides the logo URL.</t>
   </si>
   <si>
     <t>AWS S3 URL (expected to begin with 'https://')</t>
@@ -356,9 +269,6 @@
   </si>
   <si>
     <t>Verify that the Logo component displays an image file of an appropriate type (e.g., JPG, JPEG, PNG).</t>
-  </si>
-  <si>
-    <t>The app_logo field is populated with a valid image URL.</t>
   </si>
   <si>
     <t>AWS S3 URL with a file extension such as .png, .jpg, or .jpeg</t>
@@ -376,9 +286,6 @@
     <t>Verify that the Logo component is non-interactive and does not trigger any navigation when clicked.</t>
   </si>
   <si>
-    <t>The Welcome Screen is loaded displaying the Logo.</t>
-  </si>
-  <si>
     <t>No additional test data required</t>
   </si>
   <si>
@@ -390,13 +297,7 @@
     <t>Clicking on the Logo does not trigger any navigation or any other action; the user remains on the Welcome Screen.</t>
   </si>
   <si>
-    <t>Welcome Text</t>
-  </si>
-  <si>
     <t>Verify that the WelcomeText displays the configured welcome message from the system.</t>
-  </si>
-  <si>
-    <t>The system configuration is set with a specific welcome message.</t>
   </si>
   <si>
     <t>Welcome message: 'Welcome to our Application!'</t>
@@ -413,9 +314,6 @@
     <t>Verify that the WelcomeText behaves correctly when no welcome message is provided.</t>
   </si>
   <si>
-    <t>The system configuration does not set any welcome message (or sets it to an empty string).</t>
-  </si>
-  <si>
     <t>Welcome message: (empty)</t>
   </si>
   <si>
@@ -427,9 +325,6 @@
   </si>
   <si>
     <t>Verify that the WelcomeText correctly displays special characters without alteration.</t>
-  </si>
-  <si>
-    <t>The system configuration is set with a welcome message containing alphanumeric and special characters.</t>
   </si>
   <si>
     <t>Welcome message: 'Hello @User #1: Welcome!'</t>
@@ -446,9 +341,6 @@
     <t>Verify that the WelcomeText sanitizes HTML/JavaScript content to prevent XSS attacks.</t>
   </si>
   <si>
-    <t>An administrator has set the welcome message with potential XSS content.</t>
-  </si>
-  <si>
     <t>Welcome message: '&lt;script&gt;alert("XSS")&lt;/script&gt;'</t>
   </si>
   <si>
@@ -461,9 +353,6 @@
   </si>
   <si>
     <t>Verify that clicking the Signin_with_Email_Button properly transitions the user to the email sign‐in (#Singin) screen.</t>
-  </si>
-  <si>
-    <t>User is on the Welcome Screen with all elements fully loaded.</t>
   </si>
   <si>
     <t>N/A</t>
@@ -481,9 +370,6 @@
     <t>Verify that the Signin_with_Email_Button is displayed, visible, and enabled for interaction.</t>
   </si>
   <si>
-    <t>User is on the Welcome Screen.</t>
-  </si>
-  <si>
     <t>1. Open the Welcome Screen.
 2. Verify that the Signin_with_Email_Button is visible on the page.
 3. Confirm that the button is enabled and clickable.</t>
@@ -495,9 +381,6 @@
     <t>Verify that multiple consecutive clicks on the Signin_with_Email_Button do not trigger duplicate navigation events or errors.</t>
   </si>
   <si>
-    <t>User is on the Welcome Screen and is not authenticated.</t>
-  </si>
-  <si>
     <t>1. Open the Welcome Screen.
 2. Rapidly click on the 'Signin_with_Email_Button' multiple times (e.g., 3-5 times) in succession.
 3. Monitor the application response during and after the clicks.</t>
@@ -506,13 +389,7 @@
     <t>The system should only initiate a single navigation to the email sign-in screen (#Singin) without duplicate transitions or error messages.</t>
   </si>
   <si>
-    <t>Abnormal</t>
-  </si>
-  <si>
     <t>Verify that the browser URL updates correctly to reflect the transition to the email sign-in screen upon clicking the button.</t>
-  </si>
-  <si>
-    <t>User is on the Welcome Screen and the application has proper URL routing configured.</t>
   </si>
   <si>
     <t>1. Launch the application and go to the Welcome Screen.
@@ -529,9 +406,6 @@
     <t>Verify that clicking the Signin_with_Google_Button initiates the Google OAuth flow by opening a new browser tab with the Google sign-in page.</t>
   </si>
   <si>
-    <t>User is on the Welcome screen with active internet connectivity.</t>
-  </si>
-  <si>
     <t>1. Launch the application and navigate to the Welcome screen.
 2. Click on the Signin_with_Google_Button.
 3. Observe that a new browser tab is opened.</t>
@@ -541,9 +415,6 @@
   </si>
   <si>
     <t>Verify that after successful Google OAuth authentication, the authentication tab closes and the user is redirected to the authenticated home screen (#Top_Default).</t>
-  </si>
-  <si>
-    <t>User is on the Welcome screen with active internet connectivity and has valid Google credentials.</t>
   </si>
   <si>
     <t>Valid Google account login information.</t>
@@ -563,9 +434,6 @@
   </si>
   <si>
     <t>Verify that the 'Signin_with_Google_Button' is visible, enabled, and clickable on the current screen.</t>
-  </si>
-  <si>
-    <t>User is on the Welcome/Login screen.</t>
   </si>
   <si>
     <t>1. Navigate to the Welcome/Login screen.
@@ -949,15 +817,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -985,1044 +853,714 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2">
+      <c r="I2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
       <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3">
+        <v>17</v>
+      </c>
+      <c r="I3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4">
+        <v>21</v>
+      </c>
+      <c r="I4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5">
+        <v>25</v>
+      </c>
+      <c r="I5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6">
+        <v>29</v>
+      </c>
+      <c r="I6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7">
+        <v>33</v>
+      </c>
+      <c r="I7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8">
+        <v>37</v>
+      </c>
+      <c r="I8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" t="s">
-        <v>62</v>
-      </c>
-      <c r="M9">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" t="s">
-        <v>66</v>
-      </c>
-      <c r="L10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
-      </c>
-      <c r="J12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" t="s">
-        <v>62</v>
-      </c>
-      <c r="M12">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13" t="s">
-        <v>77</v>
-      </c>
-      <c r="K13" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" t="s">
-        <v>62</v>
-      </c>
-      <c r="M13">
+        <v>53</v>
+      </c>
+      <c r="H13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6</v>
       </c>
       <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" t="s">
         <v>56</v>
       </c>
-      <c r="C14" t="s">
+      <c r="H14" t="s">
         <v>57</v>
       </c>
-      <c r="D14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" t="s">
-        <v>80</v>
-      </c>
-      <c r="J14" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" t="s">
-        <v>62</v>
-      </c>
-      <c r="M14">
+      <c r="I14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I15" t="s">
-        <v>87</v>
-      </c>
-      <c r="J15" t="s">
-        <v>88</v>
-      </c>
-      <c r="K15" t="s">
-        <v>89</v>
-      </c>
-      <c r="L15" t="s">
-        <v>90</v>
-      </c>
-      <c r="M15">
+        <v>62</v>
+      </c>
+      <c r="I15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
       </c>
       <c r="G16" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="H16" t="s">
-        <v>92</v>
-      </c>
-      <c r="I16" t="s">
-        <v>93</v>
-      </c>
-      <c r="J16" t="s">
-        <v>94</v>
-      </c>
-      <c r="K16" t="s">
-        <v>95</v>
-      </c>
-      <c r="L16" t="s">
-        <v>90</v>
-      </c>
-      <c r="M16">
+        <v>66</v>
+      </c>
+      <c r="I16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>67</v>
+      </c>
+      <c r="F17" t="s">
+        <v>68</v>
       </c>
       <c r="G17" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="H17" t="s">
-        <v>97</v>
-      </c>
-      <c r="I17" t="s">
-        <v>98</v>
-      </c>
-      <c r="J17" t="s">
-        <v>99</v>
-      </c>
-      <c r="K17" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17">
+        <v>70</v>
+      </c>
+      <c r="I17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>71</v>
+      </c>
+      <c r="F18" t="s">
+        <v>72</v>
       </c>
       <c r="G18" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I18" t="s">
-        <v>103</v>
-      </c>
-      <c r="J18" t="s">
-        <v>104</v>
-      </c>
-      <c r="K18" t="s">
-        <v>105</v>
-      </c>
-      <c r="L18" t="s">
-        <v>90</v>
-      </c>
-      <c r="M18">
+        <v>74</v>
+      </c>
+      <c r="I18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>75</v>
+      </c>
+      <c r="F19" t="s">
+        <v>76</v>
       </c>
       <c r="G19" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s">
-        <v>108</v>
-      </c>
-      <c r="I19" t="s">
-        <v>109</v>
-      </c>
-      <c r="J19" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" t="s">
-        <v>90</v>
-      </c>
-      <c r="M19">
+        <v>78</v>
+      </c>
+      <c r="I19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>106</v>
+        <v>79</v>
+      </c>
+      <c r="F20" t="s">
+        <v>80</v>
       </c>
       <c r="G20" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s">
-        <v>113</v>
-      </c>
-      <c r="I20" t="s">
-        <v>114</v>
-      </c>
-      <c r="J20" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" t="s">
-        <v>90</v>
-      </c>
-      <c r="M20">
+        <v>82</v>
+      </c>
+      <c r="I20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
         <v>83</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>84</v>
       </c>
-      <c r="E21" t="s">
-        <v>106</v>
-      </c>
       <c r="G21" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="H21" t="s">
-        <v>118</v>
-      </c>
-      <c r="I21" t="s">
-        <v>119</v>
-      </c>
-      <c r="J21" t="s">
-        <v>120</v>
-      </c>
-      <c r="K21" t="s">
-        <v>121</v>
-      </c>
-      <c r="L21" t="s">
-        <v>90</v>
-      </c>
-      <c r="M21">
+        <v>86</v>
+      </c>
+      <c r="I21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>87</v>
+      </c>
+      <c r="F22" t="s">
+        <v>88</v>
       </c>
       <c r="G22" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s">
-        <v>123</v>
-      </c>
-      <c r="I22" t="s">
-        <v>124</v>
-      </c>
-      <c r="J22" t="s">
-        <v>125</v>
-      </c>
-      <c r="K22" t="s">
-        <v>126</v>
-      </c>
-      <c r="L22" t="s">
         <v>90</v>
       </c>
-      <c r="M22">
+      <c r="I22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>91</v>
+      </c>
+      <c r="F23" t="s">
+        <v>92</v>
       </c>
       <c r="G23" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="H23" t="s">
-        <v>128</v>
-      </c>
-      <c r="I23" t="s">
-        <v>129</v>
-      </c>
-      <c r="J23" t="s">
-        <v>130</v>
-      </c>
-      <c r="K23" t="s">
-        <v>131</v>
-      </c>
-      <c r="L23" t="s">
-        <v>90</v>
-      </c>
-      <c r="M23">
+        <v>94</v>
+      </c>
+      <c r="I23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>95</v>
+      </c>
+      <c r="F24" t="s">
+        <v>92</v>
       </c>
       <c r="G24" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="H24" t="s">
-        <v>133</v>
-      </c>
-      <c r="I24" t="s">
-        <v>129</v>
-      </c>
-      <c r="J24" t="s">
-        <v>134</v>
-      </c>
-      <c r="K24" t="s">
-        <v>135</v>
-      </c>
-      <c r="L24" t="s">
-        <v>90</v>
-      </c>
-      <c r="M24">
+        <v>97</v>
+      </c>
+      <c r="I24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>67</v>
+        <v>98</v>
+      </c>
+      <c r="F25" t="s">
+        <v>92</v>
       </c>
       <c r="G25" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="H25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I25" t="s">
-        <v>129</v>
-      </c>
-      <c r="J25" t="s">
-        <v>138</v>
-      </c>
-      <c r="K25" t="s">
-        <v>139</v>
-      </c>
-      <c r="L25" t="s">
-        <v>140</v>
-      </c>
-      <c r="M25">
+        <v>100</v>
+      </c>
+      <c r="I25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>101</v>
+      </c>
+      <c r="F26" t="s">
+        <v>92</v>
       </c>
       <c r="G26" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="H26" t="s">
-        <v>142</v>
-      </c>
-      <c r="I26" t="s">
-        <v>129</v>
-      </c>
-      <c r="J26" t="s">
-        <v>143</v>
-      </c>
-      <c r="K26" t="s">
-        <v>144</v>
-      </c>
-      <c r="L26" t="s">
-        <v>90</v>
-      </c>
-      <c r="M26">
+        <v>103</v>
+      </c>
+      <c r="I26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>105</v>
+      </c>
+      <c r="F27" t="s">
+        <v>92</v>
       </c>
       <c r="G27" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="H27" t="s">
-        <v>147</v>
-      </c>
-      <c r="I27" t="s">
-        <v>129</v>
-      </c>
-      <c r="J27" t="s">
-        <v>148</v>
-      </c>
-      <c r="K27" t="s">
-        <v>149</v>
-      </c>
-      <c r="L27" t="s">
-        <v>90</v>
-      </c>
-      <c r="M27">
+        <v>107</v>
+      </c>
+      <c r="I27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>108</v>
+      </c>
+      <c r="F28" t="s">
+        <v>109</v>
       </c>
       <c r="G28" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="H28" t="s">
-        <v>151</v>
-      </c>
-      <c r="I28" t="s">
-        <v>152</v>
-      </c>
-      <c r="J28" t="s">
-        <v>153</v>
-      </c>
-      <c r="K28" t="s">
-        <v>154</v>
-      </c>
-      <c r="L28" t="s">
-        <v>90</v>
-      </c>
-      <c r="M28">
+        <v>111</v>
+      </c>
+      <c r="I28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>113</v>
+      </c>
+      <c r="F29" t="s">
+        <v>92</v>
       </c>
       <c r="G29" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="H29" t="s">
-        <v>157</v>
-      </c>
-      <c r="I29" t="s">
-        <v>129</v>
-      </c>
-      <c r="J29" t="s">
-        <v>158</v>
-      </c>
-      <c r="K29" t="s">
-        <v>159</v>
-      </c>
-      <c r="L29" t="s">
-        <v>90</v>
-      </c>
-      <c r="M29">
+        <v>115</v>
+      </c>
+      <c r="I29">
         <v>28</v>
       </c>
     </row>
@@ -2035,7 +1573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A5AAFF-A964-475C-9C69-DDF7DB1589FC}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -2043,58 +1581,58 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VSCode_Workspace\github\streamlit_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C496E0A-D661-41C5-B2B8-5CEB8546E12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CFD43C-78BA-4263-98CA-EFFFFB7617B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="118">
   <si>
     <t>ID</t>
   </si>
@@ -32,9 +32,6 @@
     <t>test_area</t>
   </si>
   <si>
-    <t>sub_sub_category</t>
-  </si>
-  <si>
     <t>test_objective</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
   </si>
   <si>
     <t>expected_result</t>
-  </si>
-  <si>
-    <t>TC_ID</t>
   </si>
   <si>
     <t>Welcome Screen</t>
@@ -817,15 +811,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -847,721 +841,631 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
       </c>
       <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
       </c>
       <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
       </c>
       <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
       </c>
       <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>31</v>
       </c>
-      <c r="G7" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="H7" t="s">
+      <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="I7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>34</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>35</v>
       </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>40</v>
       </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
         <v>43</v>
       </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" t="s">
         <v>46</v>
       </c>
-      <c r="G11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" t="s">
         <v>49</v>
       </c>
-      <c r="G12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s">
         <v>52</v>
       </c>
-      <c r="G13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s">
         <v>55</v>
       </c>
-      <c r="G14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
         <v>58</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>59</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>60</v>
       </c>
-      <c r="G15" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
       </c>
       <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" t="s">
         <v>63</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>64</v>
       </c>
-      <c r="G16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
       </c>
       <c r="E17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" t="s">
         <v>67</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>68</v>
       </c>
-      <c r="G17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
       </c>
       <c r="E18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" t="s">
         <v>71</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>72</v>
       </c>
-      <c r="G18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
       </c>
       <c r="E19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" t="s">
         <v>75</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>76</v>
       </c>
-      <c r="G19" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" t="s">
-        <v>78</v>
-      </c>
-      <c r="I19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
       </c>
       <c r="E20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" t="s">
         <v>79</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>80</v>
       </c>
-      <c r="G20" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>81</v>
       </c>
       <c r="E21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" t="s">
         <v>83</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>84</v>
       </c>
-      <c r="G21" t="s">
-        <v>85</v>
-      </c>
-      <c r="H21" t="s">
-        <v>86</v>
-      </c>
-      <c r="I21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>85</v>
       </c>
       <c r="E22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" t="s">
         <v>87</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>88</v>
       </c>
-      <c r="G22" t="s">
-        <v>89</v>
-      </c>
-      <c r="H22" t="s">
-        <v>90</v>
-      </c>
-      <c r="I22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>89</v>
       </c>
       <c r="E23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" t="s">
         <v>91</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>92</v>
       </c>
-      <c r="G23" t="s">
-        <v>93</v>
-      </c>
-      <c r="H23" t="s">
-        <v>94</v>
-      </c>
-      <c r="I23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>93</v>
       </c>
       <c r="E24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" t="s">
         <v>95</v>
       </c>
-      <c r="F24" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" t="s">
-        <v>96</v>
-      </c>
-      <c r="H24" t="s">
-        <v>97</v>
-      </c>
-      <c r="I24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>96</v>
       </c>
       <c r="E25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" t="s">
         <v>98</v>
       </c>
-      <c r="F25" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" t="s">
-        <v>99</v>
-      </c>
-      <c r="H25" t="s">
-        <v>100</v>
-      </c>
-      <c r="I25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
+        <v>99</v>
       </c>
       <c r="E26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" t="s">
         <v>101</v>
       </c>
-      <c r="F26" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" t="s">
-        <v>102</v>
-      </c>
-      <c r="H26" t="s">
-        <v>103</v>
-      </c>
-      <c r="I26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" t="s">
         <v>104</v>
       </c>
-      <c r="C27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
         <v>105</v>
       </c>
-      <c r="F27" t="s">
-        <v>92</v>
-      </c>
-      <c r="G27" t="s">
-        <v>106</v>
-      </c>
-      <c r="H27" t="s">
-        <v>107</v>
-      </c>
-      <c r="I27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>106</v>
       </c>
       <c r="E28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" t="s">
         <v>108</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>109</v>
       </c>
-      <c r="G28" t="s">
-        <v>110</v>
-      </c>
-      <c r="H28" t="s">
-        <v>111</v>
-      </c>
-      <c r="I28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" t="s">
         <v>112</v>
       </c>
-      <c r="C29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
         <v>113</v>
-      </c>
-      <c r="F29" t="s">
-        <v>92</v>
-      </c>
-      <c r="G29" t="s">
-        <v>114</v>
-      </c>
-      <c r="H29" t="s">
-        <v>115</v>
-      </c>
-      <c r="I29">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1581,58 +1485,58 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
         <v>116</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>117</v>
-      </c>
-      <c r="D1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
         <v>116</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>117</v>
-      </c>
-      <c r="D2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" t="s">
         <v>116</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>117</v>
-      </c>
-      <c r="D3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" t="s">
         <v>116</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>117</v>
-      </c>
-      <c r="D4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
